--- a/Pipeline_2-Vulnerability/Technology/Outputs/Data/RIS_Tech_w.xlsx
+++ b/Pipeline_2-Vulnerability/Technology/Outputs/Data/RIS_Tech_w.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>4.1.1_KnowledgeEmp</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>4.1.2_InnovEmp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>4.2.3_SalesNewInno</t>
         </is>
       </c>
@@ -472,12 +462,6 @@
         <v>180.21</v>
       </c>
       <c r="L2">
-        <v>106.67</v>
-      </c>
-      <c r="M2">
-        <v>137.49</v>
-      </c>
-      <c r="N2">
         <v>189.39</v>
       </c>
     </row>
@@ -524,12 +508,6 @@
         <v>180.21</v>
       </c>
       <c r="L3">
-        <v>106.67</v>
-      </c>
-      <c r="M3">
-        <v>137.49</v>
-      </c>
-      <c r="N3">
         <v>189.39</v>
       </c>
     </row>
@@ -576,12 +554,6 @@
         <v>180.21</v>
       </c>
       <c r="L4">
-        <v>106.67</v>
-      </c>
-      <c r="M4">
-        <v>137.49</v>
-      </c>
-      <c r="N4">
         <v>189.39</v>
       </c>
     </row>
@@ -628,12 +600,6 @@
         <v>149.33</v>
       </c>
       <c r="L5">
-        <v>96.67</v>
-      </c>
-      <c r="M5">
-        <v>124.2</v>
-      </c>
-      <c r="N5">
         <v>155</v>
       </c>
     </row>
@@ -680,12 +646,6 @@
         <v>149.33</v>
       </c>
       <c r="L6">
-        <v>96.67</v>
-      </c>
-      <c r="M6">
-        <v>124.2</v>
-      </c>
-      <c r="N6">
         <v>155</v>
       </c>
     </row>
@@ -732,12 +692,6 @@
         <v>186.4</v>
       </c>
       <c r="L7">
-        <v>97.5</v>
-      </c>
-      <c r="M7">
-        <v>147.62</v>
-      </c>
-      <c r="N7">
         <v>127.6</v>
       </c>
     </row>
@@ -784,12 +738,6 @@
         <v>186.4</v>
       </c>
       <c r="L8">
-        <v>97.5</v>
-      </c>
-      <c r="M8">
-        <v>147.62</v>
-      </c>
-      <c r="N8">
         <v>127.6</v>
       </c>
     </row>
@@ -836,12 +784,6 @@
         <v>186.4</v>
       </c>
       <c r="L9">
-        <v>97.5</v>
-      </c>
-      <c r="M9">
-        <v>147.62</v>
-      </c>
-      <c r="N9">
         <v>127.6</v>
       </c>
     </row>
@@ -888,12 +830,6 @@
         <v>186.4</v>
       </c>
       <c r="L10">
-        <v>97.5</v>
-      </c>
-      <c r="M10">
-        <v>147.62</v>
-      </c>
-      <c r="N10">
         <v>127.6</v>
       </c>
     </row>
@@ -940,12 +876,6 @@
         <v>190.15</v>
       </c>
       <c r="L11">
-        <v>125.83</v>
-      </c>
-      <c r="M11">
-        <v>147.02</v>
-      </c>
-      <c r="N11">
         <v>105.31</v>
       </c>
     </row>
@@ -992,12 +922,6 @@
         <v>222.75</v>
       </c>
       <c r="L12">
-        <v>105</v>
-      </c>
-      <c r="M12">
-        <v>174.17</v>
-      </c>
-      <c r="N12">
         <v>174.78</v>
       </c>
     </row>
@@ -1044,12 +968,6 @@
         <v>222.75</v>
       </c>
       <c r="L13">
-        <v>105</v>
-      </c>
-      <c r="M13">
-        <v>174.17</v>
-      </c>
-      <c r="N13">
         <v>174.78</v>
       </c>
     </row>
@@ -1096,12 +1014,6 @@
         <v>222.75</v>
       </c>
       <c r="L14">
-        <v>105</v>
-      </c>
-      <c r="M14">
-        <v>174.17</v>
-      </c>
-      <c r="N14">
         <v>174.78</v>
       </c>
     </row>
@@ -1148,12 +1060,6 @@
         <v>222.75</v>
       </c>
       <c r="L15">
-        <v>105</v>
-      </c>
-      <c r="M15">
-        <v>174.17</v>
-      </c>
-      <c r="N15">
         <v>174.78</v>
       </c>
     </row>
@@ -1200,12 +1106,6 @@
         <v>222.75</v>
       </c>
       <c r="L16">
-        <v>105</v>
-      </c>
-      <c r="M16">
-        <v>174.17</v>
-      </c>
-      <c r="N16">
         <v>174.78</v>
       </c>
     </row>
@@ -1252,12 +1152,6 @@
         <v>186.81</v>
       </c>
       <c r="L17">
-        <v>92.5</v>
-      </c>
-      <c r="M17">
-        <v>143.42</v>
-      </c>
-      <c r="N17">
         <v>199.7</v>
       </c>
     </row>
@@ -1304,12 +1198,6 @@
         <v>186.81</v>
       </c>
       <c r="L18">
-        <v>92.5</v>
-      </c>
-      <c r="M18">
-        <v>143.42</v>
-      </c>
-      <c r="N18">
         <v>199.7</v>
       </c>
     </row>
@@ -1356,12 +1244,6 @@
         <v>186.81</v>
       </c>
       <c r="L19">
-        <v>92.5</v>
-      </c>
-      <c r="M19">
-        <v>143.42</v>
-      </c>
-      <c r="N19">
         <v>199.7</v>
       </c>
     </row>
@@ -1408,12 +1290,6 @@
         <v>186.81</v>
       </c>
       <c r="L20">
-        <v>92.5</v>
-      </c>
-      <c r="M20">
-        <v>143.42</v>
-      </c>
-      <c r="N20">
         <v>199.7</v>
       </c>
     </row>
@@ -1460,12 +1336,6 @@
         <v>186.81</v>
       </c>
       <c r="L21">
-        <v>92.5</v>
-      </c>
-      <c r="M21">
-        <v>143.42</v>
-      </c>
-      <c r="N21">
         <v>199.7</v>
       </c>
     </row>
@@ -1512,12 +1382,6 @@
         <v>64.59999999999999</v>
       </c>
       <c r="L22">
-        <v>34.17</v>
-      </c>
-      <c r="M22">
-        <v>67.23999999999999</v>
-      </c>
-      <c r="N22">
         <v>99.29000000000001</v>
       </c>
     </row>
@@ -1564,12 +1428,6 @@
         <v>62.83</v>
       </c>
       <c r="L23">
-        <v>67.5</v>
-      </c>
-      <c r="M23">
-        <v>74.31999999999999</v>
-      </c>
-      <c r="N23">
         <v>68.38</v>
       </c>
     </row>
@@ -1616,12 +1474,6 @@
         <v>55.12</v>
       </c>
       <c r="L24">
-        <v>60</v>
-      </c>
-      <c r="M24">
-        <v>51.21</v>
-      </c>
-      <c r="N24">
         <v>87.77</v>
       </c>
     </row>
@@ -1668,12 +1520,6 @@
         <v>53.89</v>
       </c>
       <c r="L25">
-        <v>55</v>
-      </c>
-      <c r="M25">
-        <v>58.32</v>
-      </c>
-      <c r="N25">
         <v>131.48</v>
       </c>
     </row>
@@ -1720,12 +1566,6 @@
         <v>77.29000000000001</v>
       </c>
       <c r="L26">
-        <v>120.83</v>
-      </c>
-      <c r="M26">
-        <v>74.98</v>
-      </c>
-      <c r="N26">
         <v>113.34</v>
       </c>
     </row>
@@ -1772,12 +1612,6 @@
         <v>60.39</v>
       </c>
       <c r="L27">
-        <v>59.17</v>
-      </c>
-      <c r="M27">
-        <v>62.78</v>
-      </c>
-      <c r="N27">
         <v>116.19</v>
       </c>
     </row>
@@ -1824,12 +1658,6 @@
         <v>222.75</v>
       </c>
       <c r="L28">
-        <v>175.83</v>
-      </c>
-      <c r="M28">
-        <v>144.93</v>
-      </c>
-      <c r="N28">
         <v>158.63</v>
       </c>
     </row>
@@ -1876,12 +1704,6 @@
         <v>176.98</v>
       </c>
       <c r="L29">
-        <v>145</v>
-      </c>
-      <c r="M29">
-        <v>114.77</v>
-      </c>
-      <c r="N29">
         <v>173.94</v>
       </c>
     </row>
@@ -1928,12 +1750,6 @@
         <v>171.42</v>
       </c>
       <c r="L30">
-        <v>134.17</v>
-      </c>
-      <c r="M30">
-        <v>110.92</v>
-      </c>
-      <c r="N30">
         <v>115.04</v>
       </c>
     </row>
@@ -1980,12 +1796,6 @@
         <v>159.68</v>
       </c>
       <c r="L31">
-        <v>110</v>
-      </c>
-      <c r="M31">
-        <v>115.32</v>
-      </c>
-      <c r="N31">
         <v>84.17</v>
       </c>
     </row>
@@ -2032,12 +1842,6 @@
         <v>175.87</v>
       </c>
       <c r="L32">
-        <v>158.33</v>
-      </c>
-      <c r="M32">
-        <v>127.26</v>
-      </c>
-      <c r="N32">
         <v>208.57</v>
       </c>
     </row>
@@ -2084,12 +1888,6 @@
         <v>185.06</v>
       </c>
       <c r="L33">
-        <v>125.83</v>
-      </c>
-      <c r="M33">
-        <v>122.37</v>
-      </c>
-      <c r="N33">
         <v>124.12</v>
       </c>
     </row>
@@ -2136,12 +1934,6 @@
         <v>180.93</v>
       </c>
       <c r="L34">
-        <v>115</v>
-      </c>
-      <c r="M34">
-        <v>123.75</v>
-      </c>
-      <c r="N34">
         <v>139.66</v>
       </c>
     </row>
@@ -2188,12 +1980,6 @@
         <v>172.6</v>
       </c>
       <c r="L35">
-        <v>122.5</v>
-      </c>
-      <c r="M35">
-        <v>117.88</v>
-      </c>
-      <c r="N35">
         <v>184.4</v>
       </c>
     </row>
@@ -2240,12 +2026,6 @@
         <v>211.57</v>
       </c>
       <c r="L36">
-        <v>175.83</v>
-      </c>
-      <c r="M36">
-        <v>163.51</v>
-      </c>
-      <c r="N36">
         <v>106.81</v>
       </c>
     </row>
@@ -2292,12 +2072,6 @@
         <v>218.12</v>
       </c>
       <c r="L37">
-        <v>175.83</v>
-      </c>
-      <c r="M37">
-        <v>182.78</v>
-      </c>
-      <c r="N37">
         <v>105.65</v>
       </c>
     </row>
@@ -2344,12 +2118,6 @@
         <v>196.47</v>
       </c>
       <c r="L38">
-        <v>135.83</v>
-      </c>
-      <c r="M38">
-        <v>167.28</v>
-      </c>
-      <c r="N38">
         <v>101.32</v>
       </c>
     </row>
@@ -2396,12 +2164,6 @@
         <v>215.13</v>
       </c>
       <c r="L39">
-        <v>165.83</v>
-      </c>
-      <c r="M39">
-        <v>172.25</v>
-      </c>
-      <c r="N39">
         <v>100.52</v>
       </c>
     </row>
@@ -2448,12 +2210,6 @@
         <v>222.75</v>
       </c>
       <c r="L40">
-        <v>175.83</v>
-      </c>
-      <c r="M40">
-        <v>164.72</v>
-      </c>
-      <c r="N40">
         <v>138.61</v>
       </c>
     </row>
@@ -2500,12 +2256,6 @@
         <v>142.44</v>
       </c>
       <c r="L41">
-        <v>148.33</v>
-      </c>
-      <c r="M41">
-        <v>157.61</v>
-      </c>
-      <c r="N41">
         <v>81.23</v>
       </c>
     </row>
@@ -2552,12 +2302,6 @@
         <v>159.29</v>
       </c>
       <c r="L42">
-        <v>159.17</v>
-      </c>
-      <c r="M42">
-        <v>121.34</v>
-      </c>
-      <c r="N42">
         <v>127.42</v>
       </c>
     </row>
@@ -2604,12 +2348,6 @@
         <v>163.85</v>
       </c>
       <c r="L43">
-        <v>118.33</v>
-      </c>
-      <c r="M43">
-        <v>145.42</v>
-      </c>
-      <c r="N43">
         <v>127.57</v>
       </c>
     </row>
@@ -2656,12 +2394,6 @@
         <v>182.92</v>
       </c>
       <c r="L44">
-        <v>148.33</v>
-      </c>
-      <c r="M44">
-        <v>147.69</v>
-      </c>
-      <c r="N44">
         <v>104.7</v>
       </c>
     </row>
@@ -2708,12 +2440,6 @@
         <v>163.45</v>
       </c>
       <c r="L45">
-        <v>134.17</v>
-      </c>
-      <c r="M45">
-        <v>175.92</v>
-      </c>
-      <c r="N45">
         <v>86.45</v>
       </c>
     </row>
@@ -2760,12 +2486,6 @@
         <v>198.19</v>
       </c>
       <c r="L46">
-        <v>135.83</v>
-      </c>
-      <c r="M46">
-        <v>139.34</v>
-      </c>
-      <c r="N46">
         <v>63.46</v>
       </c>
     </row>
@@ -2812,12 +2532,6 @@
         <v>210.36</v>
       </c>
       <c r="L47">
-        <v>143.33</v>
-      </c>
-      <c r="M47">
-        <v>143.89</v>
-      </c>
-      <c r="N47">
         <v>141.9</v>
       </c>
     </row>
@@ -2864,12 +2578,6 @@
         <v>172.31</v>
       </c>
       <c r="L48">
-        <v>65</v>
-      </c>
-      <c r="M48">
-        <v>133.94</v>
-      </c>
-      <c r="N48">
         <v>89.3</v>
       </c>
     </row>
@@ -2916,12 +2624,6 @@
         <v>172.52</v>
       </c>
       <c r="L49">
-        <v>112.5</v>
-      </c>
-      <c r="M49">
-        <v>159.42</v>
-      </c>
-      <c r="N49">
         <v>74.65000000000001</v>
       </c>
     </row>
@@ -2968,12 +2670,6 @@
         <v>222.75</v>
       </c>
       <c r="L50">
-        <v>146.67</v>
-      </c>
-      <c r="M50">
-        <v>195.99</v>
-      </c>
-      <c r="N50">
         <v>114.08</v>
       </c>
     </row>
@@ -3020,12 +2716,6 @@
         <v>198.64</v>
       </c>
       <c r="L51">
-        <v>135.83</v>
-      </c>
-      <c r="M51">
-        <v>143.15</v>
-      </c>
-      <c r="N51">
         <v>97.67</v>
       </c>
     </row>
@@ -3072,12 +2762,6 @@
         <v>182.91</v>
       </c>
       <c r="L52">
-        <v>78.33</v>
-      </c>
-      <c r="M52">
-        <v>184.08</v>
-      </c>
-      <c r="N52">
         <v>74.81</v>
       </c>
     </row>
@@ -3124,12 +2808,6 @@
         <v>182.22</v>
       </c>
       <c r="L53">
-        <v>113.33</v>
-      </c>
-      <c r="M53">
-        <v>129.3</v>
-      </c>
-      <c r="N53">
         <v>73</v>
       </c>
     </row>
@@ -3176,12 +2854,6 @@
         <v>114.78</v>
       </c>
       <c r="L54">
-        <v>50.83</v>
-      </c>
-      <c r="M54">
-        <v>115.79</v>
-      </c>
-      <c r="N54">
         <v>34.71</v>
       </c>
     </row>
@@ -3228,12 +2900,6 @@
         <v>208.56</v>
       </c>
       <c r="L55">
-        <v>175.83</v>
-      </c>
-      <c r="M55">
-        <v>146.94</v>
-      </c>
-      <c r="N55">
         <v>81.95999999999999</v>
       </c>
     </row>
@@ -3280,12 +2946,6 @@
         <v>162.17</v>
       </c>
       <c r="L56">
-        <v>103.33</v>
-      </c>
-      <c r="M56">
-        <v>143.82</v>
-      </c>
-      <c r="N56">
         <v>72.92</v>
       </c>
     </row>
@@ -3332,12 +2992,6 @@
         <v>222.75</v>
       </c>
       <c r="L57">
-        <v>85</v>
-      </c>
-      <c r="M57">
-        <v>190.09</v>
-      </c>
-      <c r="N57">
         <v>90.22</v>
       </c>
     </row>
@@ -3384,12 +3038,6 @@
         <v>184</v>
       </c>
       <c r="L58">
-        <v>80.83</v>
-      </c>
-      <c r="M58">
-        <v>129.57</v>
-      </c>
-      <c r="N58">
         <v>96.94</v>
       </c>
     </row>
@@ -3436,12 +3084,6 @@
         <v>206.66</v>
       </c>
       <c r="L59">
-        <v>104.17</v>
-      </c>
-      <c r="M59">
-        <v>144.99</v>
-      </c>
-      <c r="N59">
         <v>77.34999999999999</v>
       </c>
     </row>
@@ -3488,12 +3130,6 @@
         <v>214.24</v>
       </c>
       <c r="L60">
-        <v>114.17</v>
-      </c>
-      <c r="M60">
-        <v>183.26</v>
-      </c>
-      <c r="N60">
         <v>114.89</v>
       </c>
     </row>
@@ -3540,12 +3176,6 @@
         <v>206.15</v>
       </c>
       <c r="L61">
-        <v>82.5</v>
-      </c>
-      <c r="M61">
-        <v>154.2</v>
-      </c>
-      <c r="N61">
         <v>74.98</v>
       </c>
     </row>
@@ -3592,12 +3222,6 @@
         <v>195.46</v>
       </c>
       <c r="L62">
-        <v>103.33</v>
-      </c>
-      <c r="M62">
-        <v>166.33</v>
-      </c>
-      <c r="N62">
         <v>79.8</v>
       </c>
     </row>
@@ -3644,12 +3268,6 @@
         <v>179.38</v>
       </c>
       <c r="L63">
-        <v>95</v>
-      </c>
-      <c r="M63">
-        <v>156.27</v>
-      </c>
-      <c r="N63">
         <v>100.45</v>
       </c>
     </row>
@@ -3696,12 +3314,6 @@
         <v>222.75</v>
       </c>
       <c r="L64">
-        <v>95</v>
-      </c>
-      <c r="M64">
-        <v>195.99</v>
-      </c>
-      <c r="N64">
         <v>114.78</v>
       </c>
     </row>
@@ -3748,12 +3360,6 @@
         <v>211.65</v>
       </c>
       <c r="L65">
-        <v>7.5</v>
-      </c>
-      <c r="M65">
-        <v>124.7</v>
-      </c>
-      <c r="N65">
         <v>74.36</v>
       </c>
     </row>
@@ -3800,12 +3406,6 @@
         <v>172.16</v>
       </c>
       <c r="L66">
-        <v>140</v>
-      </c>
-      <c r="M66">
-        <v>169.05</v>
-      </c>
-      <c r="N66">
         <v>55.9</v>
       </c>
     </row>
@@ -3852,12 +3452,6 @@
         <v>200.54</v>
       </c>
       <c r="L67">
-        <v>94.17</v>
-      </c>
-      <c r="M67">
-        <v>124.84</v>
-      </c>
-      <c r="N67">
         <v>73.8</v>
       </c>
     </row>
@@ -3904,12 +3498,6 @@
         <v>178.48</v>
       </c>
       <c r="L68">
-        <v>115</v>
-      </c>
-      <c r="M68">
-        <v>142.28</v>
-      </c>
-      <c r="N68">
         <v>98.38</v>
       </c>
     </row>
@@ -3956,12 +3544,6 @@
         <v>169.19</v>
       </c>
       <c r="L69">
-        <v>113.33</v>
-      </c>
-      <c r="M69">
-        <v>136.51</v>
-      </c>
-      <c r="N69">
         <v>118.66</v>
       </c>
     </row>
@@ -4008,12 +3590,6 @@
         <v>181.19</v>
       </c>
       <c r="L70">
-        <v>102.5</v>
-      </c>
-      <c r="M70">
-        <v>155.33</v>
-      </c>
-      <c r="N70">
         <v>95.84</v>
       </c>
     </row>
@@ -4060,12 +3636,6 @@
         <v>172.58</v>
       </c>
       <c r="L71">
-        <v>56.67</v>
-      </c>
-      <c r="M71">
-        <v>113.87</v>
-      </c>
-      <c r="N71">
         <v>87.70999999999999</v>
       </c>
     </row>
@@ -4112,12 +3682,6 @@
         <v>198.82</v>
       </c>
       <c r="L72">
-        <v>85</v>
-      </c>
-      <c r="M72">
-        <v>163.67</v>
-      </c>
-      <c r="N72">
         <v>97.2</v>
       </c>
     </row>
@@ -4164,12 +3728,6 @@
         <v>160.25</v>
       </c>
       <c r="L73">
-        <v>95.83</v>
-      </c>
-      <c r="M73">
-        <v>130.76</v>
-      </c>
-      <c r="N73">
         <v>100.32</v>
       </c>
     </row>
@@ -4216,12 +3774,6 @@
         <v>183.31</v>
       </c>
       <c r="L74">
-        <v>140</v>
-      </c>
-      <c r="M74">
-        <v>109.53</v>
-      </c>
-      <c r="N74">
         <v>144.3</v>
       </c>
     </row>
@@ -4268,12 +3820,6 @@
         <v>106.97</v>
       </c>
       <c r="L75">
-        <v>66.67</v>
-      </c>
-      <c r="M75">
-        <v>109.53</v>
-      </c>
-      <c r="N75">
         <v>198.43</v>
       </c>
     </row>
@@ -4320,12 +3866,6 @@
         <v>124.3</v>
       </c>
       <c r="L76">
-        <v>66.67</v>
-      </c>
-      <c r="M76">
-        <v>109.53</v>
-      </c>
-      <c r="N76">
         <v>86.11</v>
       </c>
     </row>
@@ -4372,12 +3912,6 @@
         <v>165.39</v>
       </c>
       <c r="L77">
-        <v>85</v>
-      </c>
-      <c r="M77">
-        <v>109.53</v>
-      </c>
-      <c r="N77">
         <v>130.95</v>
       </c>
     </row>
@@ -4424,12 +3958,6 @@
         <v>152.49</v>
       </c>
       <c r="L78">
-        <v>57.5</v>
-      </c>
-      <c r="M78">
-        <v>109.53</v>
-      </c>
-      <c r="N78">
         <v>140.65</v>
       </c>
     </row>
@@ -4476,12 +4004,6 @@
         <v>222.75</v>
       </c>
       <c r="L79">
-        <v>130</v>
-      </c>
-      <c r="M79">
-        <v>162.89</v>
-      </c>
-      <c r="N79">
         <v>243.57</v>
       </c>
     </row>
@@ -4528,12 +4050,6 @@
         <v>153.29</v>
       </c>
       <c r="L80">
-        <v>22.5</v>
-      </c>
-      <c r="M80">
-        <v>101.95</v>
-      </c>
-      <c r="N80">
         <v>97.48</v>
       </c>
     </row>
@@ -4580,12 +4096,6 @@
         <v>163.23</v>
       </c>
       <c r="L81">
-        <v>36.67</v>
-      </c>
-      <c r="M81">
-        <v>142.34</v>
-      </c>
-      <c r="N81">
         <v>149.82</v>
       </c>
     </row>
@@ -4632,12 +4142,6 @@
         <v>222.75</v>
       </c>
       <c r="L82">
-        <v>15</v>
-      </c>
-      <c r="M82">
-        <v>161.26</v>
-      </c>
-      <c r="N82">
         <v>205.36</v>
       </c>
     </row>
@@ -4684,12 +4188,6 @@
         <v>211.28</v>
       </c>
       <c r="L83">
-        <v>16.67</v>
-      </c>
-      <c r="M83">
-        <v>164.54</v>
-      </c>
-      <c r="N83">
         <v>211.54</v>
       </c>
     </row>
@@ -4736,12 +4234,6 @@
         <v>222.75</v>
       </c>
       <c r="L84">
-        <v>46.67</v>
-      </c>
-      <c r="M84">
-        <v>179.87</v>
-      </c>
-      <c r="N84">
         <v>227.51</v>
       </c>
     </row>
@@ -4788,12 +4280,6 @@
         <v>216.61</v>
       </c>
       <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>128.87</v>
-      </c>
-      <c r="N85">
         <v>182.63</v>
       </c>
     </row>
@@ -4840,12 +4326,6 @@
         <v>222.75</v>
       </c>
       <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>160.4</v>
-      </c>
-      <c r="N86">
         <v>274.97</v>
       </c>
     </row>
@@ -4892,12 +4372,6 @@
         <v>222.75</v>
       </c>
       <c r="L87">
-        <v>17.5</v>
-      </c>
-      <c r="M87">
-        <v>161.56</v>
-      </c>
-      <c r="N87">
         <v>215.28</v>
       </c>
     </row>
@@ -4944,12 +4418,6 @@
         <v>205.33</v>
       </c>
       <c r="L88">
-        <v>4.17</v>
-      </c>
-      <c r="M88">
-        <v>139.56</v>
-      </c>
-      <c r="N88">
         <v>236.48</v>
       </c>
     </row>
@@ -4996,12 +4464,6 @@
         <v>222.75</v>
       </c>
       <c r="L89">
-        <v>30</v>
-      </c>
-      <c r="M89">
-        <v>151.68</v>
-      </c>
-      <c r="N89">
         <v>207.17</v>
       </c>
     </row>
@@ -5048,12 +4510,6 @@
         <v>222.75</v>
       </c>
       <c r="L90">
-        <v>5.83</v>
-      </c>
-      <c r="M90">
-        <v>160.95</v>
-      </c>
-      <c r="N90">
         <v>274.97</v>
       </c>
     </row>
@@ -5100,12 +4556,6 @@
         <v>222.75</v>
       </c>
       <c r="L91">
-        <v>21.67</v>
-      </c>
-      <c r="M91">
-        <v>132.19</v>
-      </c>
-      <c r="N91">
         <v>131.47</v>
       </c>
     </row>
@@ -5152,12 +4602,6 @@
         <v>66.47</v>
       </c>
       <c r="L92">
-        <v>70</v>
-      </c>
-      <c r="M92">
-        <v>55.22</v>
-      </c>
-      <c r="N92">
         <v>148.55</v>
       </c>
     </row>
@@ -5204,12 +4648,6 @@
         <v>69.04000000000001</v>
       </c>
       <c r="L93">
-        <v>59.17</v>
-      </c>
-      <c r="M93">
-        <v>56.6</v>
-      </c>
-      <c r="N93">
         <v>101.88</v>
       </c>
     </row>
@@ -5256,12 +4694,6 @@
         <v>73.42</v>
       </c>
       <c r="L94">
-        <v>58.33</v>
-      </c>
-      <c r="M94">
-        <v>61.59</v>
-      </c>
-      <c r="N94">
         <v>149.35</v>
       </c>
     </row>
@@ -5308,12 +4740,6 @@
         <v>97.42</v>
       </c>
       <c r="L95">
-        <v>132.5</v>
-      </c>
-      <c r="M95">
-        <v>95.8</v>
-      </c>
-      <c r="N95">
         <v>250.98</v>
       </c>
     </row>
@@ -5360,12 +4786,6 @@
         <v>76.11</v>
       </c>
       <c r="L96">
-        <v>111.67</v>
-      </c>
-      <c r="M96">
-        <v>77.86</v>
-      </c>
-      <c r="N96">
         <v>187.33</v>
       </c>
     </row>
@@ -5412,12 +4832,6 @@
         <v>79.89</v>
       </c>
       <c r="L97">
-        <v>41.67</v>
-      </c>
-      <c r="M97">
-        <v>66.16</v>
-      </c>
-      <c r="N97">
         <v>156.75</v>
       </c>
     </row>
@@ -5464,12 +4878,6 @@
         <v>73.47</v>
       </c>
       <c r="L98">
-        <v>85</v>
-      </c>
-      <c r="M98">
-        <v>62.55</v>
-      </c>
-      <c r="N98">
         <v>198.39</v>
       </c>
     </row>
@@ -5516,12 +4924,6 @@
         <v>84.40000000000001</v>
       </c>
       <c r="L99">
-        <v>136.67</v>
-      </c>
-      <c r="M99">
-        <v>58.29</v>
-      </c>
-      <c r="N99">
         <v>197.21</v>
       </c>
     </row>
@@ -5568,12 +4970,6 @@
         <v>71.63</v>
       </c>
       <c r="L100">
-        <v>55</v>
-      </c>
-      <c r="M100">
-        <v>60.27</v>
-      </c>
-      <c r="N100">
         <v>181.1</v>
       </c>
     </row>
@@ -5620,12 +5016,6 @@
         <v>48.22</v>
       </c>
       <c r="L101">
-        <v>39.17</v>
-      </c>
-      <c r="M101">
-        <v>38.36</v>
-      </c>
-      <c r="N101">
         <v>160.23</v>
       </c>
     </row>
@@ -5672,12 +5062,6 @@
         <v>50.84</v>
       </c>
       <c r="L102">
-        <v>20.83</v>
-      </c>
-      <c r="M102">
-        <v>48.22</v>
-      </c>
-      <c r="N102">
         <v>158.69</v>
       </c>
     </row>
@@ -5724,12 +5108,6 @@
         <v>85.17</v>
       </c>
       <c r="L103">
-        <v>120</v>
-      </c>
-      <c r="M103">
-        <v>70.56999999999999</v>
-      </c>
-      <c r="N103">
         <v>216.38</v>
       </c>
     </row>
@@ -5776,12 +5154,6 @@
         <v>70.58</v>
       </c>
       <c r="L104">
-        <v>63.33</v>
-      </c>
-      <c r="M104">
-        <v>60.14</v>
-      </c>
-      <c r="N104">
         <v>211.03</v>
       </c>
     </row>
@@ -5828,12 +5200,6 @@
         <v>45.52</v>
       </c>
       <c r="L105">
-        <v>35.83</v>
-      </c>
-      <c r="M105">
-        <v>22.39</v>
-      </c>
-      <c r="N105">
         <v>87.62</v>
       </c>
     </row>
@@ -5880,12 +5246,6 @@
         <v>54.83</v>
       </c>
       <c r="L106">
-        <v>38.33</v>
-      </c>
-      <c r="M106">
-        <v>39.14</v>
-      </c>
-      <c r="N106">
         <v>127.68</v>
       </c>
     </row>
@@ -5932,12 +5292,6 @@
         <v>63.17</v>
       </c>
       <c r="L107">
-        <v>34.17</v>
-      </c>
-      <c r="M107">
-        <v>44.22</v>
-      </c>
-      <c r="N107">
         <v>162.08</v>
       </c>
     </row>
@@ -5984,12 +5338,6 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>16.67</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
         <v>65.11</v>
       </c>
     </row>
@@ -6036,12 +5384,6 @@
         <v>17.32</v>
       </c>
       <c r="L109">
-        <v>37.5</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
         <v>123.76</v>
       </c>
     </row>
@@ -6088,12 +5430,6 @@
         <v>58.68</v>
       </c>
       <c r="L110">
-        <v>39.17</v>
-      </c>
-      <c r="M110">
-        <v>33.19</v>
-      </c>
-      <c r="N110">
         <v>84.86</v>
       </c>
     </row>
@@ -6140,12 +5476,6 @@
         <v>195.06</v>
       </c>
       <c r="L111">
-        <v>95</v>
-      </c>
-      <c r="M111">
-        <v>148.29</v>
-      </c>
-      <c r="N111">
         <v>130.08</v>
       </c>
     </row>
@@ -6192,12 +5522,6 @@
         <v>202.58</v>
       </c>
       <c r="L112">
-        <v>160</v>
-      </c>
-      <c r="M112">
-        <v>157.54</v>
-      </c>
-      <c r="N112">
         <v>230.1</v>
       </c>
     </row>
@@ -6244,12 +5568,6 @@
         <v>176.9</v>
       </c>
       <c r="L113">
-        <v>97.5</v>
-      </c>
-      <c r="M113">
-        <v>153.78</v>
-      </c>
-      <c r="N113">
         <v>187.93</v>
       </c>
     </row>
@@ -6296,12 +5614,6 @@
         <v>192.69</v>
       </c>
       <c r="L114">
-        <v>70</v>
-      </c>
-      <c r="M114">
-        <v>145.43</v>
-      </c>
-      <c r="N114">
         <v>187.61</v>
       </c>
     </row>
@@ -6348,12 +5660,6 @@
         <v>129.81</v>
       </c>
       <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>143.65</v>
-      </c>
-      <c r="N115">
         <v>12.85</v>
       </c>
     </row>
@@ -6400,12 +5706,6 @@
         <v>161.32</v>
       </c>
       <c r="L116">
-        <v>145.83</v>
-      </c>
-      <c r="M116">
-        <v>124.07</v>
-      </c>
-      <c r="N116">
         <v>93.94</v>
       </c>
     </row>
@@ -6452,12 +5752,6 @@
         <v>124.21</v>
       </c>
       <c r="L117">
-        <v>68.33</v>
-      </c>
-      <c r="M117">
-        <v>131.68</v>
-      </c>
-      <c r="N117">
         <v>99.43000000000001</v>
       </c>
     </row>
@@ -6504,12 +5798,6 @@
         <v>143.15</v>
       </c>
       <c r="L118">
-        <v>56.67</v>
-      </c>
-      <c r="M118">
-        <v>120.63</v>
-      </c>
-      <c r="N118">
         <v>68.75</v>
       </c>
     </row>
@@ -6556,12 +5844,6 @@
         <v>143.15</v>
       </c>
       <c r="L119">
-        <v>56.67</v>
-      </c>
-      <c r="M119">
-        <v>120.63</v>
-      </c>
-      <c r="N119">
         <v>68.75</v>
       </c>
     </row>
@@ -6608,12 +5890,6 @@
         <v>113.01</v>
       </c>
       <c r="L120">
-        <v>60</v>
-      </c>
-      <c r="M120">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N120">
         <v>53.36</v>
       </c>
     </row>
@@ -6660,12 +5936,6 @@
         <v>113.01</v>
       </c>
       <c r="L121">
-        <v>60</v>
-      </c>
-      <c r="M121">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N121">
         <v>53.36</v>
       </c>
     </row>
@@ -6712,12 +5982,6 @@
         <v>129</v>
       </c>
       <c r="L122">
-        <v>58.33</v>
-      </c>
-      <c r="M122">
-        <v>94.64</v>
-      </c>
-      <c r="N122">
         <v>40.34</v>
       </c>
     </row>
@@ -6764,12 +6028,6 @@
         <v>129</v>
       </c>
       <c r="L123">
-        <v>58.33</v>
-      </c>
-      <c r="M123">
-        <v>94.64</v>
-      </c>
-      <c r="N123">
         <v>40.34</v>
       </c>
     </row>
@@ -6816,12 +6074,6 @@
         <v>157.57</v>
       </c>
       <c r="L124">
-        <v>72.5</v>
-      </c>
-      <c r="M124">
-        <v>125.82</v>
-      </c>
-      <c r="N124">
         <v>75.61</v>
       </c>
     </row>
@@ -6868,12 +6120,6 @@
         <v>157.57</v>
       </c>
       <c r="L125">
-        <v>72.5</v>
-      </c>
-      <c r="M125">
-        <v>125.82</v>
-      </c>
-      <c r="N125">
         <v>75.61</v>
       </c>
     </row>
@@ -6920,12 +6166,6 @@
         <v>157.57</v>
       </c>
       <c r="L126">
-        <v>72.5</v>
-      </c>
-      <c r="M126">
-        <v>125.82</v>
-      </c>
-      <c r="N126">
         <v>75.61</v>
       </c>
     </row>
@@ -6972,12 +6212,6 @@
         <v>167.88</v>
       </c>
       <c r="L127">
-        <v>80.83</v>
-      </c>
-      <c r="M127">
-        <v>128.72</v>
-      </c>
-      <c r="N127">
         <v>89.89</v>
       </c>
     </row>
@@ -7024,12 +6258,6 @@
         <v>153.56</v>
       </c>
       <c r="L128">
-        <v>55.83</v>
-      </c>
-      <c r="M128">
-        <v>122.44</v>
-      </c>
-      <c r="N128">
         <v>143.34</v>
       </c>
     </row>
@@ -7076,12 +6304,6 @@
         <v>138.33</v>
       </c>
       <c r="L129">
-        <v>49.17</v>
-      </c>
-      <c r="M129">
-        <v>106.88</v>
-      </c>
-      <c r="N129">
         <v>82.64</v>
       </c>
     </row>
@@ -7128,12 +6350,6 @@
         <v>138.33</v>
       </c>
       <c r="L130">
-        <v>49.17</v>
-      </c>
-      <c r="M130">
-        <v>106.88</v>
-      </c>
-      <c r="N130">
         <v>82.64</v>
       </c>
     </row>
@@ -7180,12 +6396,6 @@
         <v>138.33</v>
       </c>
       <c r="L131">
-        <v>49.17</v>
-      </c>
-      <c r="M131">
-        <v>106.88</v>
-      </c>
-      <c r="N131">
         <v>82.64</v>
       </c>
     </row>
@@ -7232,12 +6442,6 @@
         <v>159.3</v>
       </c>
       <c r="L132">
-        <v>83.33</v>
-      </c>
-      <c r="M132">
-        <v>116.19</v>
-      </c>
-      <c r="N132">
         <v>75.8</v>
       </c>
     </row>
@@ -7284,12 +6488,6 @@
         <v>159.3</v>
       </c>
       <c r="L133">
-        <v>83.33</v>
-      </c>
-      <c r="M133">
-        <v>116.19</v>
-      </c>
-      <c r="N133">
         <v>75.8</v>
       </c>
     </row>
@@ -7336,12 +6534,6 @@
         <v>160.83</v>
       </c>
       <c r="L134">
-        <v>84.17</v>
-      </c>
-      <c r="M134">
-        <v>127.37</v>
-      </c>
-      <c r="N134">
         <v>91.2</v>
       </c>
     </row>
@@ -7388,12 +6580,6 @@
         <v>160.83</v>
       </c>
       <c r="L135">
-        <v>84.17</v>
-      </c>
-      <c r="M135">
-        <v>127.37</v>
-      </c>
-      <c r="N135">
         <v>91.2</v>
       </c>
     </row>
@@ -7440,12 +6626,6 @@
         <v>166.08</v>
       </c>
       <c r="L136">
-        <v>64.17</v>
-      </c>
-      <c r="M136">
-        <v>94.31999999999999</v>
-      </c>
-      <c r="N136">
         <v>130.29</v>
       </c>
     </row>
@@ -7492,12 +6672,6 @@
         <v>81.08</v>
       </c>
       <c r="L137">
-        <v>15.83</v>
-      </c>
-      <c r="M137">
-        <v>3.27</v>
-      </c>
-      <c r="N137">
         <v>11.2</v>
       </c>
     </row>
@@ -7544,12 +6718,6 @@
         <v>139.82</v>
       </c>
       <c r="L138">
-        <v>40</v>
-      </c>
-      <c r="M138">
-        <v>104.93</v>
-      </c>
-      <c r="N138">
         <v>190.25</v>
       </c>
     </row>
@@ -7596,12 +6764,6 @@
         <v>148.39</v>
       </c>
       <c r="L139">
-        <v>49.17</v>
-      </c>
-      <c r="M139">
-        <v>94.66</v>
-      </c>
-      <c r="N139">
         <v>160.18</v>
       </c>
     </row>
@@ -7648,12 +6810,6 @@
         <v>196.66</v>
       </c>
       <c r="L140">
-        <v>132.5</v>
-      </c>
-      <c r="M140">
-        <v>139.88</v>
-      </c>
-      <c r="N140">
         <v>246.9</v>
       </c>
     </row>
@@ -7700,12 +6856,6 @@
         <v>163.31</v>
       </c>
       <c r="L141">
-        <v>49.17</v>
-      </c>
-      <c r="M141">
-        <v>115.44</v>
-      </c>
-      <c r="N141">
         <v>230.64</v>
       </c>
     </row>
@@ -7752,12 +6902,6 @@
         <v>81.02</v>
       </c>
       <c r="L142">
-        <v>175.83</v>
-      </c>
-      <c r="M142">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="N142">
         <v>65.76000000000001</v>
       </c>
     </row>
@@ -7804,12 +6948,6 @@
         <v>61.68</v>
       </c>
       <c r="L143">
-        <v>132.5</v>
-      </c>
-      <c r="M143">
-        <v>46.9</v>
-      </c>
-      <c r="N143">
         <v>56.38</v>
       </c>
     </row>
@@ -7856,12 +6994,6 @@
         <v>51.25</v>
       </c>
       <c r="L144">
-        <v>139.17</v>
-      </c>
-      <c r="M144">
-        <v>52.94</v>
-      </c>
-      <c r="N144">
         <v>89.16</v>
       </c>
     </row>
@@ -7908,12 +7040,6 @@
         <v>58.53</v>
       </c>
       <c r="L145">
-        <v>128.33</v>
-      </c>
-      <c r="M145">
-        <v>45.21</v>
-      </c>
-      <c r="N145">
         <v>122.48</v>
       </c>
     </row>
@@ -7960,12 +7086,6 @@
         <v>54.93</v>
       </c>
       <c r="L146">
-        <v>59.17</v>
-      </c>
-      <c r="M146">
-        <v>39.89</v>
-      </c>
-      <c r="N146">
         <v>54.66</v>
       </c>
     </row>
@@ -8012,12 +7132,6 @@
         <v>59.9</v>
       </c>
       <c r="L147">
-        <v>111.67</v>
-      </c>
-      <c r="M147">
-        <v>62.46</v>
-      </c>
-      <c r="N147">
         <v>77.06</v>
       </c>
     </row>
@@ -8064,12 +7178,6 @@
         <v>42.89</v>
       </c>
       <c r="L148">
-        <v>59.17</v>
-      </c>
-      <c r="M148">
-        <v>31.97</v>
-      </c>
-      <c r="N148">
         <v>100.55</v>
       </c>
     </row>
@@ -8116,12 +7224,6 @@
         <v>48.12</v>
       </c>
       <c r="L149">
-        <v>60</v>
-      </c>
-      <c r="M149">
-        <v>45.66</v>
-      </c>
-      <c r="N149">
         <v>60.25</v>
       </c>
     </row>
@@ -8168,12 +7270,6 @@
         <v>191.15</v>
       </c>
       <c r="L150">
-        <v>62.5</v>
-      </c>
-      <c r="M150">
-        <v>106.95</v>
-      </c>
-      <c r="N150">
         <v>195.49</v>
       </c>
     </row>
@@ -8220,12 +7316,6 @@
         <v>161.88</v>
       </c>
       <c r="L151">
-        <v>108.33</v>
-      </c>
-      <c r="M151">
-        <v>119.98</v>
-      </c>
-      <c r="N151">
         <v>274.97</v>
       </c>
     </row>
@@ -8272,12 +7362,6 @@
         <v>164.99</v>
       </c>
       <c r="L152">
-        <v>146.67</v>
-      </c>
-      <c r="M152">
-        <v>115.67</v>
-      </c>
-      <c r="N152">
         <v>274.97</v>
       </c>
     </row>
@@ -8324,12 +7408,6 @@
         <v>205.63</v>
       </c>
       <c r="L153">
-        <v>140</v>
-      </c>
-      <c r="M153">
-        <v>137.73</v>
-      </c>
-      <c r="N153">
         <v>176.16</v>
       </c>
     </row>
@@ -8376,12 +7454,6 @@
         <v>119.56</v>
       </c>
       <c r="L154">
-        <v>13.33</v>
-      </c>
-      <c r="M154">
-        <v>80.78</v>
-      </c>
-      <c r="N154">
         <v>176.16</v>
       </c>
     </row>
@@ -8428,12 +7500,6 @@
         <v>155.7</v>
       </c>
       <c r="L155">
-        <v>91.67</v>
-      </c>
-      <c r="M155">
-        <v>100.48</v>
-      </c>
-      <c r="N155">
         <v>176.16</v>
       </c>
     </row>
@@ -8480,12 +7546,6 @@
         <v>161.79</v>
       </c>
       <c r="L156">
-        <v>147.5</v>
-      </c>
-      <c r="M156">
-        <v>129.56</v>
-      </c>
-      <c r="N156">
         <v>176.16</v>
       </c>
     </row>
@@ -8532,12 +7592,6 @@
         <v>186.33</v>
       </c>
       <c r="L157">
-        <v>94.17</v>
-      </c>
-      <c r="M157">
-        <v>127.75</v>
-      </c>
-      <c r="N157">
         <v>176.16</v>
       </c>
     </row>
@@ -8584,12 +7638,6 @@
         <v>97.14</v>
       </c>
       <c r="L158">
-        <v>72.5</v>
-      </c>
-      <c r="M158">
-        <v>52.52</v>
-      </c>
-      <c r="N158">
         <v>176.16</v>
       </c>
     </row>
@@ -8636,12 +7684,6 @@
         <v>139.03</v>
       </c>
       <c r="L159">
-        <v>73.33</v>
-      </c>
-      <c r="M159">
-        <v>107.84</v>
-      </c>
-      <c r="N159">
         <v>176.16</v>
       </c>
     </row>
@@ -8688,12 +7730,6 @@
         <v>145.99</v>
       </c>
       <c r="L160">
-        <v>55.83</v>
-      </c>
-      <c r="M160">
-        <v>103.14</v>
-      </c>
-      <c r="N160">
         <v>176.16</v>
       </c>
     </row>
@@ -8740,12 +7776,6 @@
         <v>126.97</v>
       </c>
       <c r="L161">
-        <v>82.5</v>
-      </c>
-      <c r="M161">
-        <v>67.15000000000001</v>
-      </c>
-      <c r="N161">
         <v>176.16</v>
       </c>
     </row>
@@ -8792,12 +7822,6 @@
         <v>169.26</v>
       </c>
       <c r="L162">
-        <v>31.67</v>
-      </c>
-      <c r="M162">
-        <v>98.37</v>
-      </c>
-      <c r="N162">
         <v>176.16</v>
       </c>
     </row>
@@ -8844,12 +7868,6 @@
         <v>105.72</v>
       </c>
       <c r="L163">
-        <v>45.83</v>
-      </c>
-      <c r="M163">
-        <v>59.97</v>
-      </c>
-      <c r="N163">
         <v>176.16</v>
       </c>
     </row>
@@ -8896,12 +7914,6 @@
         <v>140.31</v>
       </c>
       <c r="L164">
-        <v>35.83</v>
-      </c>
-      <c r="M164">
-        <v>73.86</v>
-      </c>
-      <c r="N164">
         <v>176.16</v>
       </c>
     </row>
@@ -8948,12 +7960,6 @@
         <v>161.13</v>
       </c>
       <c r="L165">
-        <v>50.83</v>
-      </c>
-      <c r="M165">
-        <v>130.78</v>
-      </c>
-      <c r="N165">
         <v>176.16</v>
       </c>
     </row>
@@ -9000,12 +8006,6 @@
         <v>159.97</v>
       </c>
       <c r="L166">
-        <v>77.5</v>
-      </c>
-      <c r="M166">
-        <v>125.85</v>
-      </c>
-      <c r="N166">
         <v>176.16</v>
       </c>
     </row>
@@ -9052,12 +8052,6 @@
         <v>170.11</v>
       </c>
       <c r="L167">
-        <v>115</v>
-      </c>
-      <c r="M167">
-        <v>131.48</v>
-      </c>
-      <c r="N167">
         <v>176.16</v>
       </c>
     </row>
@@ -9104,12 +8098,6 @@
         <v>175.6</v>
       </c>
       <c r="L168">
-        <v>98.33</v>
-      </c>
-      <c r="M168">
-        <v>132.79</v>
-      </c>
-      <c r="N168">
         <v>176.16</v>
       </c>
     </row>
@@ -9156,12 +8144,6 @@
         <v>162.82</v>
       </c>
       <c r="L169">
-        <v>130.83</v>
-      </c>
-      <c r="M169">
-        <v>122.2</v>
-      </c>
-      <c r="N169">
         <v>176.16</v>
       </c>
     </row>
@@ -9208,12 +8190,6 @@
         <v>125.13</v>
       </c>
       <c r="L170">
-        <v>82.5</v>
-      </c>
-      <c r="M170">
-        <v>113.27</v>
-      </c>
-      <c r="N170">
         <v>176.16</v>
       </c>
     </row>
@@ -9260,12 +8236,6 @@
         <v>181.03</v>
       </c>
       <c r="L171">
-        <v>86.67</v>
-      </c>
-      <c r="M171">
-        <v>128.1</v>
-      </c>
-      <c r="N171">
         <v>176.16</v>
       </c>
     </row>
@@ -9312,12 +8282,6 @@
         <v>191.77</v>
       </c>
       <c r="L172">
-        <v>95</v>
-      </c>
-      <c r="M172">
-        <v>145.04</v>
-      </c>
-      <c r="N172">
         <v>176.16</v>
       </c>
     </row>
@@ -9364,12 +8328,6 @@
         <v>159.25</v>
       </c>
       <c r="L173">
-        <v>120.83</v>
-      </c>
-      <c r="M173">
-        <v>109.52</v>
-      </c>
-      <c r="N173">
         <v>176.16</v>
       </c>
     </row>
@@ -9416,12 +8374,6 @@
         <v>165.63</v>
       </c>
       <c r="L174">
-        <v>115.83</v>
-      </c>
-      <c r="M174">
-        <v>129.15</v>
-      </c>
-      <c r="N174">
         <v>199.09</v>
       </c>
     </row>
@@ -9468,12 +8420,6 @@
         <v>147.09</v>
       </c>
       <c r="L175">
-        <v>46.67</v>
-      </c>
-      <c r="M175">
-        <v>122.51</v>
-      </c>
-      <c r="N175">
         <v>126.39</v>
       </c>
     </row>
@@ -9520,12 +8466,6 @@
         <v>146.85</v>
       </c>
       <c r="L176">
-        <v>85</v>
-      </c>
-      <c r="M176">
-        <v>123.16</v>
-      </c>
-      <c r="N176">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9572,12 +8512,6 @@
         <v>146.85</v>
       </c>
       <c r="L177">
-        <v>69.17</v>
-      </c>
-      <c r="M177">
-        <v>123.16</v>
-      </c>
-      <c r="N177">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9624,12 +8558,6 @@
         <v>146.85</v>
       </c>
       <c r="L178">
-        <v>76.67</v>
-      </c>
-      <c r="M178">
-        <v>123.16</v>
-      </c>
-      <c r="N178">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9676,12 +8604,6 @@
         <v>146.85</v>
       </c>
       <c r="L179">
-        <v>84.17</v>
-      </c>
-      <c r="M179">
-        <v>123.16</v>
-      </c>
-      <c r="N179">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9728,12 +8650,6 @@
         <v>146.85</v>
       </c>
       <c r="L180">
-        <v>99.17</v>
-      </c>
-      <c r="M180">
-        <v>123.16</v>
-      </c>
-      <c r="N180">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9780,12 +8696,6 @@
         <v>146.85</v>
       </c>
       <c r="L181">
-        <v>127.5</v>
-      </c>
-      <c r="M181">
-        <v>123.16</v>
-      </c>
-      <c r="N181">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9832,12 +8742,6 @@
         <v>146.85</v>
       </c>
       <c r="L182">
-        <v>130.83</v>
-      </c>
-      <c r="M182">
-        <v>123.16</v>
-      </c>
-      <c r="N182">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9884,12 +8788,6 @@
         <v>146.85</v>
       </c>
       <c r="L183">
-        <v>145</v>
-      </c>
-      <c r="M183">
-        <v>123.16</v>
-      </c>
-      <c r="N183">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9936,12 +8834,6 @@
         <v>146.85</v>
       </c>
       <c r="L184">
-        <v>115.83</v>
-      </c>
-      <c r="M184">
-        <v>123.16</v>
-      </c>
-      <c r="N184">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -9988,12 +8880,6 @@
         <v>146.85</v>
       </c>
       <c r="L185">
-        <v>88.33</v>
-      </c>
-      <c r="M185">
-        <v>123.16</v>
-      </c>
-      <c r="N185">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -10040,12 +8926,6 @@
         <v>146.85</v>
       </c>
       <c r="L186">
-        <v>125</v>
-      </c>
-      <c r="M186">
-        <v>123.16</v>
-      </c>
-      <c r="N186">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -10092,12 +8972,6 @@
         <v>146.85</v>
       </c>
       <c r="L187">
-        <v>101.67</v>
-      </c>
-      <c r="M187">
-        <v>123.16</v>
-      </c>
-      <c r="N187">
         <v>93.01000000000001</v>
       </c>
     </row>
@@ -10144,12 +9018,6 @@
         <v>84.91</v>
       </c>
       <c r="L188">
-        <v>90</v>
-      </c>
-      <c r="M188">
-        <v>72.62</v>
-      </c>
-      <c r="N188">
         <v>79.26000000000001</v>
       </c>
     </row>
@@ -10196,12 +9064,6 @@
         <v>60.97</v>
       </c>
       <c r="L189">
-        <v>103.33</v>
-      </c>
-      <c r="M189">
-        <v>62.54</v>
-      </c>
-      <c r="N189">
         <v>61.41</v>
       </c>
     </row>
@@ -10248,12 +9110,6 @@
         <v>68.22</v>
       </c>
       <c r="L190">
-        <v>67.5</v>
-      </c>
-      <c r="M190">
-        <v>52.74</v>
-      </c>
-      <c r="N190">
         <v>32.98</v>
       </c>
     </row>
@@ -10300,12 +9156,6 @@
         <v>67.05</v>
       </c>
       <c r="L191">
-        <v>55</v>
-      </c>
-      <c r="M191">
-        <v>52.91</v>
-      </c>
-      <c r="N191">
         <v>39.67</v>
       </c>
     </row>
@@ -10352,12 +9202,6 @@
         <v>26.91</v>
       </c>
       <c r="L192">
-        <v>52.5</v>
-      </c>
-      <c r="M192">
-        <v>18.5</v>
-      </c>
-      <c r="N192">
         <v>20.16</v>
       </c>
     </row>
@@ -10404,12 +9248,6 @@
         <v>62.3</v>
       </c>
       <c r="L193">
-        <v>115</v>
-      </c>
-      <c r="M193">
-        <v>57.98</v>
-      </c>
-      <c r="N193">
         <v>126.86</v>
       </c>
     </row>
@@ -10456,12 +9294,6 @@
         <v>54.69</v>
       </c>
       <c r="L194">
-        <v>47.5</v>
-      </c>
-      <c r="M194">
-        <v>56.31</v>
-      </c>
-      <c r="N194">
         <v>69.36</v>
       </c>
     </row>
@@ -10508,12 +9340,6 @@
         <v>54.53</v>
       </c>
       <c r="L195">
-        <v>44.17</v>
-      </c>
-      <c r="M195">
-        <v>52.49</v>
-      </c>
-      <c r="N195">
         <v>60.66</v>
       </c>
     </row>
@@ -10560,12 +9386,6 @@
         <v>67.38</v>
       </c>
       <c r="L196">
-        <v>11.67</v>
-      </c>
-      <c r="M196">
-        <v>77.23999999999999</v>
-      </c>
-      <c r="N196">
         <v>82.28</v>
       </c>
     </row>
@@ -10612,12 +9432,6 @@
         <v>71.16</v>
       </c>
       <c r="L197">
-        <v>90.83</v>
-      </c>
-      <c r="M197">
-        <v>61.42</v>
-      </c>
-      <c r="N197">
         <v>43.34</v>
       </c>
     </row>
@@ -10664,12 +9478,6 @@
         <v>49.91</v>
       </c>
       <c r="L198">
-        <v>67.5</v>
-      </c>
-      <c r="M198">
-        <v>59.81</v>
-      </c>
-      <c r="N198">
         <v>61.89</v>
       </c>
     </row>
@@ -10716,12 +9524,6 @@
         <v>44.74</v>
       </c>
       <c r="L199">
-        <v>27.5</v>
-      </c>
-      <c r="M199">
-        <v>40.56</v>
-      </c>
-      <c r="N199">
         <v>32.06</v>
       </c>
     </row>
@@ -10768,12 +9570,6 @@
         <v>71.59999999999999</v>
       </c>
       <c r="L200">
-        <v>28.33</v>
-      </c>
-      <c r="M200">
-        <v>58.07</v>
-      </c>
-      <c r="N200">
         <v>58.31</v>
       </c>
     </row>
@@ -10820,12 +9616,6 @@
         <v>61.03</v>
       </c>
       <c r="L201">
-        <v>60.83</v>
-      </c>
-      <c r="M201">
-        <v>72.84999999999999</v>
-      </c>
-      <c r="N201">
         <v>62.58</v>
       </c>
     </row>
@@ -10872,12 +9662,6 @@
         <v>67.38</v>
       </c>
       <c r="L202">
-        <v>14.17</v>
-      </c>
-      <c r="M202">
-        <v>59.76</v>
-      </c>
-      <c r="N202">
         <v>36.98</v>
       </c>
     </row>
@@ -10924,12 +9708,6 @@
         <v>123.64</v>
       </c>
       <c r="L203">
-        <v>143.33</v>
-      </c>
-      <c r="M203">
-        <v>95.16</v>
-      </c>
-      <c r="N203">
         <v>101.12</v>
       </c>
     </row>
@@ -10976,12 +9754,6 @@
         <v>50.45</v>
       </c>
       <c r="L204">
-        <v>35</v>
-      </c>
-      <c r="M204">
-        <v>40.87</v>
-      </c>
-      <c r="N204">
         <v>18.4</v>
       </c>
     </row>
@@ -11028,12 +9800,6 @@
         <v>128.74</v>
       </c>
       <c r="L205">
-        <v>70.83</v>
-      </c>
-      <c r="M205">
-        <v>95.95999999999999</v>
-      </c>
-      <c r="N205">
         <v>196.44</v>
       </c>
     </row>
@@ -11080,12 +9846,6 @@
         <v>138.44</v>
       </c>
       <c r="L206">
-        <v>7.5</v>
-      </c>
-      <c r="M206">
-        <v>81.33</v>
-      </c>
-      <c r="N206">
         <v>149.05</v>
       </c>
     </row>
@@ -11132,12 +9892,6 @@
         <v>167.32</v>
       </c>
       <c r="L207">
-        <v>55</v>
-      </c>
-      <c r="M207">
-        <v>125.82</v>
-      </c>
-      <c r="N207">
         <v>178.02</v>
       </c>
     </row>
@@ -11184,12 +9938,6 @@
         <v>178.1</v>
       </c>
       <c r="L208">
-        <v>130.83</v>
-      </c>
-      <c r="M208">
-        <v>132.65</v>
-      </c>
-      <c r="N208">
         <v>221.88</v>
       </c>
     </row>
@@ -11236,12 +9984,6 @@
         <v>132.6</v>
       </c>
       <c r="L209">
-        <v>45</v>
-      </c>
-      <c r="M209">
-        <v>113.21</v>
-      </c>
-      <c r="N209">
         <v>170.39</v>
       </c>
     </row>
@@ -11288,12 +10030,6 @@
         <v>126.12</v>
       </c>
       <c r="L210">
-        <v>15</v>
-      </c>
-      <c r="M210">
-        <v>108.28</v>
-      </c>
-      <c r="N210">
         <v>208.54</v>
       </c>
     </row>
@@ -11340,12 +10076,6 @@
         <v>108.79</v>
       </c>
       <c r="L211">
-        <v>0</v>
-      </c>
-      <c r="M211">
-        <v>88.72</v>
-      </c>
-      <c r="N211">
         <v>136</v>
       </c>
     </row>
@@ -11392,12 +10122,6 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>60</v>
-      </c>
-      <c r="M212">
-        <v>0</v>
-      </c>
-      <c r="N212">
         <v>37.68</v>
       </c>
     </row>
@@ -11444,12 +10168,6 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>84.17</v>
-      </c>
-      <c r="M213">
-        <v>0</v>
-      </c>
-      <c r="N213">
         <v>21.02</v>
       </c>
     </row>
@@ -11496,12 +10214,6 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>15</v>
-      </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
-      <c r="N214">
         <v>20.49</v>
       </c>
     </row>
@@ -11548,12 +10260,6 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>53.33</v>
-      </c>
-      <c r="M215">
-        <v>0</v>
-      </c>
-      <c r="N215">
         <v>15.92</v>
       </c>
     </row>
@@ -11600,12 +10306,6 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>95</v>
-      </c>
-      <c r="M216">
-        <v>0</v>
-      </c>
-      <c r="N216">
         <v>10.26</v>
       </c>
     </row>
@@ -11652,12 +10352,6 @@
         <v>2.45</v>
       </c>
       <c r="L217">
-        <v>150</v>
-      </c>
-      <c r="M217">
-        <v>0</v>
-      </c>
-      <c r="N217">
         <v>75.06999999999999</v>
       </c>
     </row>
@@ -11704,12 +10398,6 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>35</v>
-      </c>
-      <c r="M218">
-        <v>0</v>
-      </c>
-      <c r="N218">
         <v>2.81</v>
       </c>
     </row>
@@ -11756,12 +10444,6 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>165.83</v>
-      </c>
-      <c r="M219">
-        <v>0</v>
-      </c>
-      <c r="N219">
         <v>23.95</v>
       </c>
     </row>
@@ -11808,12 +10490,6 @@
         <v>199</v>
       </c>
       <c r="L220">
-        <v>175.83</v>
-      </c>
-      <c r="M220">
-        <v>147.09</v>
-      </c>
-      <c r="N220">
         <v>186.72</v>
       </c>
     </row>
@@ -11860,12 +10536,6 @@
         <v>167.75</v>
       </c>
       <c r="L221">
-        <v>120.83</v>
-      </c>
-      <c r="M221">
-        <v>139.94</v>
-      </c>
-      <c r="N221">
         <v>112.46</v>
       </c>
     </row>
@@ -11912,12 +10582,6 @@
         <v>171.77</v>
       </c>
       <c r="L222">
-        <v>82.5</v>
-      </c>
-      <c r="M222">
-        <v>140.87</v>
-      </c>
-      <c r="N222">
         <v>83.25</v>
       </c>
     </row>
@@ -11964,12 +10628,6 @@
         <v>163.15</v>
       </c>
       <c r="L223">
-        <v>128.33</v>
-      </c>
-      <c r="M223">
-        <v>146.16</v>
-      </c>
-      <c r="N223">
         <v>153.73</v>
       </c>
     </row>
@@ -12016,12 +10674,6 @@
         <v>194.54</v>
       </c>
       <c r="L224">
-        <v>147.5</v>
-      </c>
-      <c r="M224">
-        <v>155.79</v>
-      </c>
-      <c r="N224">
         <v>141.36</v>
       </c>
     </row>
@@ -12068,12 +10720,6 @@
         <v>167.35</v>
       </c>
       <c r="L225">
-        <v>66.67</v>
-      </c>
-      <c r="M225">
-        <v>121.95</v>
-      </c>
-      <c r="N225">
         <v>66.56</v>
       </c>
     </row>
@@ -12120,12 +10766,6 @@
         <v>177.89</v>
       </c>
       <c r="L226">
-        <v>90</v>
-      </c>
-      <c r="M226">
-        <v>118.04</v>
-      </c>
-      <c r="N226">
         <v>90.48</v>
       </c>
     </row>
@@ -12172,12 +10812,6 @@
         <v>161.36</v>
       </c>
       <c r="L227">
-        <v>82.5</v>
-      </c>
-      <c r="M227">
-        <v>131.98</v>
-      </c>
-      <c r="N227">
         <v>80.58</v>
       </c>
     </row>
@@ -12224,12 +10858,6 @@
         <v>126.83</v>
       </c>
       <c r="L228">
-        <v>124.17</v>
-      </c>
-      <c r="M228">
-        <v>122.16</v>
-      </c>
-      <c r="N228">
         <v>147.91</v>
       </c>
     </row>
@@ -12276,12 +10904,6 @@
         <v>151.61</v>
       </c>
       <c r="L229">
-        <v>156.67</v>
-      </c>
-      <c r="M229">
-        <v>126.24</v>
-      </c>
-      <c r="N229">
         <v>89.76000000000001</v>
       </c>
     </row>
@@ -12328,12 +10950,6 @@
         <v>99.17</v>
       </c>
       <c r="L230">
-        <v>160.83</v>
-      </c>
-      <c r="M230">
-        <v>73.61</v>
-      </c>
-      <c r="N230">
         <v>152.79</v>
       </c>
     </row>
@@ -12380,12 +10996,6 @@
         <v>52.62</v>
       </c>
       <c r="L231">
-        <v>161.67</v>
-      </c>
-      <c r="M231">
-        <v>54.48</v>
-      </c>
-      <c r="N231">
         <v>62.57</v>
       </c>
     </row>
@@ -12432,12 +11042,6 @@
         <v>93.09</v>
       </c>
       <c r="L232">
-        <v>113.33</v>
-      </c>
-      <c r="M232">
-        <v>70.97</v>
-      </c>
-      <c r="N232">
         <v>67.62</v>
       </c>
     </row>
@@ -12484,12 +11088,6 @@
         <v>59.28</v>
       </c>
       <c r="L233">
-        <v>95</v>
-      </c>
-      <c r="M233">
-        <v>60.61</v>
-      </c>
-      <c r="N233">
         <v>149.09</v>
       </c>
     </row>
